--- a/natmiOut/OldD7/LR-pairs_lrc2p/Siglec1-Spn.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Siglec1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Siglec1</t>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +516,247 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.9420947267633</v>
+        <v>55.49088033333334</v>
       </c>
       <c r="H2">
-        <v>40.9420947267633</v>
+        <v>166.472641</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9642568285787312</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9642568285787311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.81203343722251</v>
+        <v>2.400925</v>
       </c>
       <c r="N2">
-        <v>1.81203343722251</v>
+        <v>7.202775</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9592478079643895</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9592478079643894</v>
       </c>
       <c r="Q2">
-        <v>74.18844463482651</v>
+        <v>133.2294418643083</v>
       </c>
       <c r="R2">
-        <v>74.18844463482651</v>
+        <v>1199.064976778775</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.9249612491288419</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.9249612491288417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>55.49088033333334</v>
+      </c>
+      <c r="H3">
+        <v>166.472641</v>
+      </c>
+      <c r="I3">
+        <v>0.9642568285787312</v>
+      </c>
+      <c r="J3">
+        <v>0.9642568285787311</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.1019996666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.305999</v>
+      </c>
+      <c r="O3">
+        <v>0.04075219203561061</v>
+      </c>
+      <c r="P3">
+        <v>0.04075219203561061</v>
+      </c>
+      <c r="Q3">
+        <v>5.66005129703989</v>
+      </c>
+      <c r="R3">
+        <v>50.940461673359</v>
+      </c>
+      <c r="S3">
+        <v>0.03929557944988932</v>
+      </c>
+      <c r="T3">
+        <v>0.03929557944988931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>2.056941666666666</v>
+      </c>
+      <c r="H4">
+        <v>6.170825</v>
+      </c>
+      <c r="I4">
+        <v>0.03574317142126884</v>
+      </c>
+      <c r="J4">
+        <v>0.03574317142126884</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.400925</v>
+      </c>
+      <c r="N4">
+        <v>7.202775</v>
+      </c>
+      <c r="O4">
+        <v>0.9592478079643895</v>
+      </c>
+      <c r="P4">
+        <v>0.9592478079643894</v>
+      </c>
+      <c r="Q4">
+        <v>4.938562671041666</v>
+      </c>
+      <c r="R4">
+        <v>44.447064039375</v>
+      </c>
+      <c r="S4">
+        <v>0.03428655883554755</v>
+      </c>
+      <c r="T4">
+        <v>0.03428655883554754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>2.056941666666666</v>
+      </c>
+      <c r="H5">
+        <v>6.170825</v>
+      </c>
+      <c r="I5">
+        <v>0.03574317142126884</v>
+      </c>
+      <c r="J5">
+        <v>0.03574317142126884</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1019996666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.305999</v>
+      </c>
+      <c r="O5">
+        <v>0.04075219203561061</v>
+      </c>
+      <c r="P5">
+        <v>0.04075219203561061</v>
+      </c>
+      <c r="Q5">
+        <v>0.2098073643527777</v>
+      </c>
+      <c r="R5">
+        <v>1.888266279175</v>
+      </c>
+      <c r="S5">
+        <v>0.001456612585721297</v>
+      </c>
+      <c r="T5">
+        <v>0.001456612585721297</v>
       </c>
     </row>
   </sheetData>
